--- a/CISCO-Splunk Architect - 5 days TOC.xlsx
+++ b/CISCO-Splunk Architect - 5 days TOC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://niit-my.sharepoint.com/personal/angad_bedi_in_niit_com/Documents/Back u p/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_ARCHITECT_06_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1000001_{E4A89800-0C7E-1345-93DD-527DF00283E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1339BB1C-CDC0-4CE2-A06A-E8B9D1619A8A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87740CCF-D25C-4EE0-A0D3-B48E4DE721D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -669,12 +669,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -705,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -734,10 +746,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -761,9 +782,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -801,7 +822,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -907,7 +928,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1049,7 +1070,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1062,8 +1083,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B6" sqref="B1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1077,49 +1098,49 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -1151,16 +1172,16 @@
     </row>
     <row r="7" spans="1:6" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1169,10 +1190,10 @@
     </row>
     <row r="8" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1181,19 +1202,19 @@
       <c r="E8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="165.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1205,13 +1226,13 @@
     </row>
     <row r="10" spans="1:6" ht="114.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="7"/>
@@ -1219,7 +1240,7 @@
     </row>
     <row r="11" spans="1:6" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="8"/>
@@ -1241,6 +1262,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100879D077FF5199743AF0E6EB088A49D6E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ddf8ecf37254ef33c12dd450de07a6d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bd6cbb26-0155-44b8-a09f-96847189a7e5" xmlns:ns3="9a626c53-ba59-4d98-a688-a672a0d1e5ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="540ac64c39517c2096c6483ebf62f8bf" ns2:_="" ns3:_="">
     <xsd:import namespace="bd6cbb26-0155-44b8-a09f-96847189a7e5"/>
@@ -1497,15 +1527,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1520,6 +1541,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AF6782-EA11-4081-AA49-98CFECEA3E00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CB0CFBF-09EC-4888-898C-3259D0C9E8AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1539,14 +1568,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AF6782-EA11-4081-AA49-98CFECEA3E00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBD70FC-0662-442B-827A-19EE87BC7460}">
   <ds:schemaRefs>

--- a/CISCO-Splunk Architect - 5 days TOC.xlsx
+++ b/CISCO-Splunk Architect - 5 days TOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_ARCHITECT_06_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87740CCF-D25C-4EE0-A0D3-B48E4DE721D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C50ECB-35E6-4499-B7AA-A3F63DBC7653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,6 +743,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -750,15 +759,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1098,57 +1098,57 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
@@ -1172,16 +1172,16 @@
     </row>
     <row r="7" spans="1:6" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1190,10 +1190,10 @@
     </row>
     <row r="8" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1202,19 +1202,19 @@
       <c r="E8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="165.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1226,13 +1226,13 @@
     </row>
     <row r="10" spans="1:6" ht="114.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="7"/>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="11" spans="1:6" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="8"/>
@@ -1262,15 +1262,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100879D077FF5199743AF0E6EB088A49D6E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ddf8ecf37254ef33c12dd450de07a6d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bd6cbb26-0155-44b8-a09f-96847189a7e5" xmlns:ns3="9a626c53-ba59-4d98-a688-a672a0d1e5ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="540ac64c39517c2096c6483ebf62f8bf" ns2:_="" ns3:_="">
     <xsd:import namespace="bd6cbb26-0155-44b8-a09f-96847189a7e5"/>
@@ -1527,6 +1518,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1541,14 +1541,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AF6782-EA11-4081-AA49-98CFECEA3E00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CB0CFBF-09EC-4888-898C-3259D0C9E8AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1568,6 +1560,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AF6782-EA11-4081-AA49-98CFECEA3E00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBD70FC-0662-442B-827A-19EE87BC7460}">
   <ds:schemaRefs>

--- a/CISCO-Splunk Architect - 5 days TOC.xlsx
+++ b/CISCO-Splunk Architect - 5 days TOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_ARCHITECT_06_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C50ECB-35E6-4499-B7AA-A3F63DBC7653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9AFE9C-8C1A-40EF-97B0-2D80A5386DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -725,9 +723,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -759,6 +754,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1083,170 +1081,170 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="4" customWidth="1"/>
-    <col min="2" max="5" width="37.88671875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="34.33203125" style="4"/>
+    <col min="1" max="1" width="15.44140625" style="3" customWidth="1"/>
+    <col min="2" max="5" width="37.88671875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="34.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="165.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="114.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1262,6 +1260,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100879D077FF5199743AF0E6EB088A49D6E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ddf8ecf37254ef33c12dd450de07a6d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bd6cbb26-0155-44b8-a09f-96847189a7e5" xmlns:ns3="9a626c53-ba59-4d98-a688-a672a0d1e5ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="540ac64c39517c2096c6483ebf62f8bf" ns2:_="" ns3:_="">
     <xsd:import namespace="bd6cbb26-0155-44b8-a09f-96847189a7e5"/>
@@ -1518,15 +1525,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1541,6 +1539,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AF6782-EA11-4081-AA49-98CFECEA3E00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CB0CFBF-09EC-4888-898C-3259D0C9E8AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1560,14 +1566,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AF6782-EA11-4081-AA49-98CFECEA3E00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBD70FC-0662-442B-827A-19EE87BC7460}">
   <ds:schemaRefs>

--- a/CISCO-Splunk Architect - 5 days TOC.xlsx
+++ b/CISCO-Splunk Architect - 5 days TOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_ARCHITECT_06_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9AFE9C-8C1A-40EF-97B0-2D80A5386DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A256C503-D378-4A07-875A-975935C70CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,7 +667,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,12 +677,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -744,7 +738,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -754,9 +748,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1082,7 +1073,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1167,7 @@
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -1227,7 +1218,7 @@
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1260,15 +1251,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100879D077FF5199743AF0E6EB088A49D6E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ddf8ecf37254ef33c12dd450de07a6d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bd6cbb26-0155-44b8-a09f-96847189a7e5" xmlns:ns3="9a626c53-ba59-4d98-a688-a672a0d1e5ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="540ac64c39517c2096c6483ebf62f8bf" ns2:_="" ns3:_="">
     <xsd:import namespace="bd6cbb26-0155-44b8-a09f-96847189a7e5"/>
@@ -1525,6 +1507,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1539,14 +1530,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AF6782-EA11-4081-AA49-98CFECEA3E00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CB0CFBF-09EC-4888-898C-3259D0C9E8AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1566,6 +1549,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AF6782-EA11-4081-AA49-98CFECEA3E00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBD70FC-0662-442B-827A-19EE87BC7460}">
   <ds:schemaRefs>

--- a/CISCO-Splunk Architect - 5 days TOC.xlsx
+++ b/CISCO-Splunk Architect - 5 days TOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_ARCHITECT_06_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A256C503-D378-4A07-875A-975935C70CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C58313-AB52-47CB-8CD4-DFA5E3402BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,11 +709,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1072,170 +1069,170 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="3" customWidth="1"/>
-    <col min="2" max="5" width="37.88671875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="34.33203125" style="3"/>
+    <col min="1" max="1" width="15.44140625" style="2" customWidth="1"/>
+    <col min="2" max="5" width="37.88671875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="34.33203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="165.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="114.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1251,6 +1248,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100879D077FF5199743AF0E6EB088A49D6E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ddf8ecf37254ef33c12dd450de07a6d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bd6cbb26-0155-44b8-a09f-96847189a7e5" xmlns:ns3="9a626c53-ba59-4d98-a688-a672a0d1e5ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="540ac64c39517c2096c6483ebf62f8bf" ns2:_="" ns3:_="">
     <xsd:import namespace="bd6cbb26-0155-44b8-a09f-96847189a7e5"/>
@@ -1507,15 +1513,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1530,6 +1527,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AF6782-EA11-4081-AA49-98CFECEA3E00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CB0CFBF-09EC-4888-898C-3259D0C9E8AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1549,14 +1554,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AF6782-EA11-4081-AA49-98CFECEA3E00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBD70FC-0662-442B-827A-19EE87BC7460}">
   <ds:schemaRefs>
